--- a/csvfile/交易量统计图.xlsx
+++ b/csvfile/交易量统计图.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>交易系统</t>
   </si>
@@ -23,9 +23,6 @@
     <t>总交易量</t>
   </si>
   <si>
-    <t>互联前置</t>
-  </si>
-  <si>
     <t>2020-04-08 08:00:00</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t>2020-04-08 14:00:00</t>
   </si>
   <si>
-    <t>客户信息</t>
-  </si>
-  <si>
     <t>2020-04-08 15:00:00</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>2020-04-10 15:00:00</t>
-  </si>
-  <si>
-    <t>社保医疗</t>
   </si>
   <si>
     <t>2020-04-15 14:00:00</t>
@@ -195,11 +186,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2"/>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>385.0</v>
@@ -207,11 +196,9 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>388.0</v>
@@ -219,11 +206,9 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>295.0</v>
@@ -231,11 +216,9 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>433.0</v>
@@ -243,11 +226,9 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6"/>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>170.0</v>
@@ -255,11 +236,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>384.0</v>
@@ -267,11 +246,9 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>391.0</v>
@@ -279,11 +256,9 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9"/>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>373.0</v>
@@ -291,11 +266,9 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>383.0</v>
@@ -303,11 +276,9 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11"/>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>364.0</v>
@@ -315,11 +286,9 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>171.0</v>
@@ -327,11 +296,9 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
         <v>668.0</v>
@@ -339,11 +306,9 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>545.0</v>
@@ -351,11 +316,9 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>3032.0</v>
@@ -363,11 +326,9 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>3077.0</v>
@@ -375,11 +336,9 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17"/>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>3045.0</v>
